--- a/natmiOut/OldD0/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.11490385320987</v>
+        <v>3.455159666666667</v>
       </c>
       <c r="H2">
-        <v>2.11490385320987</v>
+        <v>10.365479</v>
       </c>
       <c r="I2">
-        <v>0.4355434821961884</v>
+        <v>0.557269825537176</v>
       </c>
       <c r="J2">
-        <v>0.4355434821961884</v>
+        <v>0.557269825537176</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>12.7309074321928</v>
+        <v>0.07629866666666667</v>
       </c>
       <c r="N2">
-        <v>12.7309074321928</v>
+        <v>0.228896</v>
       </c>
       <c r="O2">
-        <v>0.7018084019515503</v>
+        <v>0.004108848954870246</v>
       </c>
       <c r="P2">
-        <v>0.7018084019515503</v>
+        <v>0.004108848954870246</v>
       </c>
       <c r="Q2">
-        <v>26.92464518320272</v>
+        <v>0.2636240756871111</v>
       </c>
       <c r="R2">
-        <v>26.92464518320272</v>
+        <v>2.372616681184</v>
       </c>
       <c r="S2">
-        <v>0.3056680752205205</v>
+        <v>0.00228973754023915</v>
       </c>
       <c r="T2">
-        <v>0.3056680752205205</v>
+        <v>0.00228973754023915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.11490385320987</v>
+        <v>3.455159666666667</v>
       </c>
       <c r="H3">
-        <v>2.11490385320987</v>
+        <v>10.365479</v>
       </c>
       <c r="I3">
-        <v>0.4355434821961884</v>
+        <v>0.557269825537176</v>
       </c>
       <c r="J3">
-        <v>0.4355434821961884</v>
+        <v>0.557269825537176</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.40923936113625</v>
+        <v>12.99468133333333</v>
       </c>
       <c r="N3">
-        <v>5.40923936113625</v>
+        <v>38.984044</v>
       </c>
       <c r="O3">
-        <v>0.2981915980484497</v>
+        <v>0.6997918200668237</v>
       </c>
       <c r="P3">
-        <v>0.2981915980484497</v>
+        <v>0.6997918200668237</v>
       </c>
       <c r="Q3">
-        <v>11.44002116780155</v>
+        <v>44.89869882411956</v>
       </c>
       <c r="R3">
-        <v>11.44002116780155</v>
+        <v>404.088289417076</v>
       </c>
       <c r="S3">
-        <v>0.1298754069756679</v>
+        <v>0.3899728654809817</v>
       </c>
       <c r="T3">
-        <v>0.1298754069756679</v>
+        <v>0.3899728654809817</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.88147435628905</v>
+        <v>3.455159666666667</v>
       </c>
       <c r="H4">
-        <v>1.88147435628905</v>
+        <v>10.365479</v>
       </c>
       <c r="I4">
-        <v>0.3874709914387992</v>
+        <v>0.557269825537176</v>
       </c>
       <c r="J4">
-        <v>0.3874709914387992</v>
+        <v>0.557269825537176</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.7309074321928</v>
+        <v>5.498373000000001</v>
       </c>
       <c r="N4">
-        <v>12.7309074321928</v>
+        <v>16.495119</v>
       </c>
       <c r="O4">
-        <v>0.7018084019515503</v>
+        <v>0.2960993309783061</v>
       </c>
       <c r="P4">
-        <v>0.7018084019515503</v>
+        <v>0.2960993309783061</v>
       </c>
       <c r="Q4">
-        <v>23.95287586596043</v>
+        <v>18.997756621889</v>
       </c>
       <c r="R4">
-        <v>23.95287586596043</v>
+        <v>170.979809597001</v>
       </c>
       <c r="S4">
-        <v>0.2719303973042465</v>
+        <v>0.1650072225159551</v>
       </c>
       <c r="T4">
-        <v>0.2719303973042465</v>
+        <v>0.1650072225159551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.88147435628905</v>
+        <v>1.884975666666667</v>
       </c>
       <c r="H5">
-        <v>1.88147435628905</v>
+        <v>5.654927</v>
       </c>
       <c r="I5">
-        <v>0.3874709914387992</v>
+        <v>0.3040207001254323</v>
       </c>
       <c r="J5">
-        <v>0.3874709914387992</v>
+        <v>0.3040207001254323</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.40923936113625</v>
+        <v>0.07629866666666667</v>
       </c>
       <c r="N5">
-        <v>5.40923936113625</v>
+        <v>0.228896</v>
       </c>
       <c r="O5">
-        <v>0.2981915980484497</v>
+        <v>0.004108848954870246</v>
       </c>
       <c r="P5">
-        <v>0.2981915980484497</v>
+        <v>0.004108848954870246</v>
       </c>
       <c r="Q5">
-        <v>10.17734514500722</v>
+        <v>0.1438211300657778</v>
       </c>
       <c r="R5">
-        <v>10.17734514500722</v>
+        <v>1.294390170592</v>
       </c>
       <c r="S5">
-        <v>0.1155405941345527</v>
+        <v>0.001249175135969303</v>
       </c>
       <c r="T5">
-        <v>0.1155405941345527</v>
+        <v>0.001249175135969303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8594029918306449</v>
+        <v>1.884975666666667</v>
       </c>
       <c r="H6">
-        <v>0.8594029918306449</v>
+        <v>5.654927</v>
       </c>
       <c r="I6">
-        <v>0.1769855263650123</v>
+        <v>0.3040207001254323</v>
       </c>
       <c r="J6">
-        <v>0.1769855263650123</v>
+        <v>0.3040207001254323</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.7309074321928</v>
+        <v>12.99468133333333</v>
       </c>
       <c r="N6">
-        <v>12.7309074321928</v>
+        <v>38.984044</v>
       </c>
       <c r="O6">
-        <v>0.7018084019515503</v>
+        <v>0.6997918200668237</v>
       </c>
       <c r="P6">
-        <v>0.7018084019515503</v>
+        <v>0.6997918200668237</v>
       </c>
       <c r="Q6">
-        <v>10.94097993594549</v>
+        <v>24.49465810942089</v>
       </c>
       <c r="R6">
-        <v>10.94097993594549</v>
+        <v>220.451922984788</v>
       </c>
       <c r="S6">
-        <v>0.1242099294267833</v>
+        <v>0.2127511990787663</v>
       </c>
       <c r="T6">
-        <v>0.1242099294267833</v>
+        <v>0.2127511990787663</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8594029918306449</v>
+        <v>1.884975666666667</v>
       </c>
       <c r="H7">
-        <v>0.8594029918306449</v>
+        <v>5.654927</v>
       </c>
       <c r="I7">
-        <v>0.1769855263650123</v>
+        <v>0.3040207001254323</v>
       </c>
       <c r="J7">
-        <v>0.1769855263650123</v>
+        <v>0.3040207001254323</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.40923936113625</v>
+        <v>5.498373000000001</v>
       </c>
       <c r="N7">
-        <v>5.40923936113625</v>
+        <v>16.495119</v>
       </c>
       <c r="O7">
-        <v>0.2981915980484497</v>
+        <v>0.2960993309783061</v>
       </c>
       <c r="P7">
-        <v>0.2981915980484497</v>
+        <v>0.2960993309783061</v>
       </c>
       <c r="Q7">
-        <v>4.64871649048858</v>
+        <v>10.364299311257</v>
       </c>
       <c r="R7">
-        <v>4.64871649048858</v>
+        <v>93.27869380131301</v>
       </c>
       <c r="S7">
-        <v>0.05277559693822905</v>
+        <v>0.09002032591069672</v>
       </c>
       <c r="T7">
-        <v>0.05277559693822905</v>
+        <v>0.09002032591069672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8600203333333334</v>
+      </c>
+      <c r="H8">
+        <v>2.580061</v>
+      </c>
+      <c r="I8">
+        <v>0.1387094743373916</v>
+      </c>
+      <c r="J8">
+        <v>0.1387094743373916</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.07629866666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.228896</v>
+      </c>
+      <c r="O8">
+        <v>0.004108848954870246</v>
+      </c>
+      <c r="P8">
+        <v>0.004108848954870246</v>
+      </c>
+      <c r="Q8">
+        <v>0.06561840473955556</v>
+      </c>
+      <c r="R8">
+        <v>0.590565642656</v>
+      </c>
+      <c r="S8">
+        <v>0.0005699362786617929</v>
+      </c>
+      <c r="T8">
+        <v>0.0005699362786617929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.8600203333333334</v>
+      </c>
+      <c r="H9">
+        <v>2.580061</v>
+      </c>
+      <c r="I9">
+        <v>0.1387094743373916</v>
+      </c>
+      <c r="J9">
+        <v>0.1387094743373916</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.99468133333333</v>
+      </c>
+      <c r="N9">
+        <v>38.984044</v>
+      </c>
+      <c r="O9">
+        <v>0.6997918200668237</v>
+      </c>
+      <c r="P9">
+        <v>0.6997918200668237</v>
+      </c>
+      <c r="Q9">
+        <v>11.17569017185378</v>
+      </c>
+      <c r="R9">
+        <v>100.581211546684</v>
+      </c>
+      <c r="S9">
+        <v>0.09706775550707568</v>
+      </c>
+      <c r="T9">
+        <v>0.09706775550707568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8600203333333334</v>
+      </c>
+      <c r="H10">
+        <v>2.580061</v>
+      </c>
+      <c r="I10">
+        <v>0.1387094743373916</v>
+      </c>
+      <c r="J10">
+        <v>0.1387094743373916</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.498373000000001</v>
+      </c>
+      <c r="N10">
+        <v>16.495119</v>
+      </c>
+      <c r="O10">
+        <v>0.2960993309783061</v>
+      </c>
+      <c r="P10">
+        <v>0.2960993309783061</v>
+      </c>
+      <c r="Q10">
+        <v>4.728712580251001</v>
+      </c>
+      <c r="R10">
+        <v>42.55841322225901</v>
+      </c>
+      <c r="S10">
+        <v>0.04107178255165418</v>
+      </c>
+      <c r="T10">
+        <v>0.04107178255165418</v>
       </c>
     </row>
   </sheetData>
